--- a/xlsx/prog-four-grades.xlsx
+++ b/xlsx/prog-four-grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graysonorr/Desktop/grade-pdf-generator/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graysonorr/Desktop/my-tools/grade-pdf-generator/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:BY3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="78" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
